--- a/outputs/simulations.xlsx
+++ b/outputs/simulations.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3BD85D-98CB-4112-AEF1-2FEE3E05469B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="103">
   <si>
     <t>Simulation</t>
   </si>
@@ -105,9 +106,6 @@
     <t>discrete</t>
   </si>
   <si>
-    <t>own</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -129,39 +127,15 @@
     <t>sim3</t>
   </si>
   <si>
-    <t>Rebound effect</t>
-  </si>
-  <si>
     <t>rebound_effect_mdl</t>
   </si>
   <si>
-    <t>rebound_effect_value</t>
-  </si>
-  <si>
-    <t>market_share_adj_size</t>
-  </si>
-  <si>
-    <t>market_share_adj_size_an_grw</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Size market share</t>
-  </si>
-  <si>
     <t>market_share_adj_techno</t>
   </si>
   <si>
-    <t>Decarbonization rates</t>
-  </si>
-  <si>
     <t>from:0;to:0.05;by:0.005</t>
   </si>
   <si>
-    <t>from:-0.01;to:0.01;by:0.002</t>
-  </si>
-  <si>
     <t>Continuous</t>
   </si>
   <si>
@@ -198,9 +172,6 @@
     <t>PHEV40</t>
   </si>
   <si>
-    <t>ef_elec_mdl</t>
-  </si>
-  <si>
     <t>market_share_diffusion_mdl</t>
   </si>
   <si>
@@ -252,21 +223,9 @@
     <t>Bass deployment - med market</t>
   </si>
   <si>
-    <t>from:0;to:-0.5;by:-0.1</t>
-  </si>
-  <si>
     <t>gcam</t>
   </si>
   <si>
-    <t>ef_elec_adj</t>
-  </si>
-  <si>
-    <t>ef_elec_adj_coef</t>
-  </si>
-  <si>
-    <t>from:-0.02;to:0.005;by:0.005</t>
-  </si>
-  <si>
     <t>All PEV</t>
   </si>
   <si>
@@ -385,13 +344,58 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>pkt_proj_modal_share_scen</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>optimization</t>
+  </si>
+  <si>
+    <t>modal_share_variable</t>
+  </si>
+  <si>
+    <t>Multi pathway optimization</t>
+  </si>
+  <si>
+    <t>fc_proj_scen</t>
+  </si>
+  <si>
+    <t>fc_variable</t>
+  </si>
+  <si>
+    <t>techno_ms_proj</t>
+  </si>
+  <si>
+    <t>techno_variable</t>
+  </si>
+  <si>
+    <t>Optimization technology</t>
+  </si>
+  <si>
+    <t>Optimization fc</t>
+  </si>
+  <si>
+    <t>Optimization modal share</t>
+  </si>
+  <si>
+    <t>from:0;to:0.03;by:0.01</t>
+  </si>
+  <si>
+    <t>from:0;to:0.04;by:0.01</t>
+  </si>
+  <si>
+    <t>from:0;to:0.12;by:0.04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +416,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +442,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -445,12 +461,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -747,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,7 +780,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -772,29 +789,29 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -802,18 +819,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,29 +844,29 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +877,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -900,22 +917,22 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -923,28 +940,28 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -958,13 +975,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,19 +989,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,19 +1009,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1012,10 +1029,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1032,10 +1049,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1049,7 +1066,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -1058,91 +1075,91 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1165,13 +1182,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1194,13 +1211,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>1E-4</v>
@@ -1223,13 +1240,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1252,7 +1269,7 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -1261,346 +1278,346 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1609,138 +1626,138 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
@@ -1749,44 +1766,44 @@
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1796,11 +1813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,13 +1858,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,13 +1872,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,112 +1886,269 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/outputs/simulations.xlsx
+++ b/outputs/simulations.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3BD85D-98CB-4112-AEF1-2FEE3E05469B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF65611-7FF4-4AB7-8C9A-298E1C7B1FBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,9 +367,6 @@
     <t>fc_variable</t>
   </si>
   <si>
-    <t>techno_ms_proj</t>
-  </si>
-  <si>
     <t>techno_variable</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>from:0;to:0.12;by:0.04</t>
+  </si>
+  <si>
+    <t>techno_ms_proj_car</t>
   </si>
 </sst>
 </file>
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,15 +1906,15 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>95</v>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -1928,13 +1928,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>89</v>
@@ -2068,13 +2068,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>89</v>
@@ -2138,13 +2138,13 @@
         <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/simulations.xlsx
+++ b/outputs/simulations.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE485A-0623-479B-AFE9-4B20FCBCCC8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172B8BC8-474A-4272-8079-0B069A83E8E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>Simulation</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Transition</t>
+  </si>
+  <si>
+    <t>sim4</t>
+  </si>
+  <si>
+    <t>Public transit and electrification</t>
   </si>
 </sst>
 </file>
@@ -270,12 +276,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,9 +308,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -776,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,227 +822,311 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
